--- a/Полный перечень данных.xlsx
+++ b/Полный перечень данных.xlsx
@@ -23,7 +23,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="131" uniqueCount="131">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">pharmacy</t>
   </si>
@@ -37,385 +37,10 @@
     <t xml:space="preserve">restaurant</t>
   </si>
   <si>
-    <t xml:space="preserve">district</t>
+    <t xml:space="preserve">distanceToCenter</t>
   </si>
   <si>
     <t xml:space="preserve">SalePrice</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Матушкино</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Савёлки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кокошкино</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Крюково</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Старое Крюково</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бирюлёво Западное</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бирюлёво Восточное</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Косино-Ухтомский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Некрасовка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Южное Бутово</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Восточный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новокосино</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Вешняки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Выхино-Жулебино</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ярославский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лосиноостровский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Братеево</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зябликово</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Новогиреево</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ивановское</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лианозово</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Марьино</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Текстильщики</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Капотня</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Люблино</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Измайлово</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гольяново</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Северное Измайлово</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Северное Бутово</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Внуково</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ново-Переделкино</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Отрадное</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алтуфьевский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бибирево</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Москворечье-Сабурово</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Царицыно</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Перово</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Рязанский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Орехово-Борисово Северное</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Орехово-Борисово Южное</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Митино</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тёплый Стан</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ясенево</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Печатники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чертаново Южное</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дмитровский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Западное Дегунино</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Северный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бескудниковский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Восточное Дегунино</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Марфино</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кузьминки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Восточное Измайлово</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Северное Медведково</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Богородское</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Метрогородок</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Солнцево</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Южное Тушино</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Северное Тушино</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чертаново Центральное</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Чертаново Северное</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ховрино</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Левобережный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Южное Медведково</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бабушкинский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Лефортово</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Молжаниновский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Куркино</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Войковский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коптево</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Головинский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Преображенское</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Строгино</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Зюзино</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нагорный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Соколиная Гора</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Обручевский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Коньково</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Кунцево</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нагатинский Затон</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нагатино-Садовники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Свиблово</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тимирязевский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Бутырский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Можайский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Фили-Давыдково</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Щукино</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Покровское-Стрешнево</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Останкинский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ростокино</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Очаково-Матвеевское</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тропарёво-Никулино</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Котловка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Даниловский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Крылатское</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Южнопортовый</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Нижегородский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хорошёво-Мнёвники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сокольники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Черёмушки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Савёловский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Марьина Роща</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Сокол</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Аэропорт</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Басманный</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Алексеевский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Академический</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Филёвский Парк</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Проспект Вернадского</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хорошёвский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Донской</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Ломоносовский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Раменки</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Гагаринский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Дорогомилово</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Беговой</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Замоскворечье</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Таганский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Мещанский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Красносельский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Пресненский</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Хамовники</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Якиманка</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Тверской</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Арбат</t>
   </si>
 </sst>
 </file>
@@ -491,7 +116,7 @@
     <xf numFmtId="42" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="false" applyProtection="false">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
@@ -500,7 +125,15 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
+      <protection locked="true" hidden="false"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="true" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -542,24 +175,21 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:G126"/>
+  <dimension ref="A1:F126"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <pane xSplit="1" ySplit="1" topLeftCell="B2" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="0" ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection pane="topLeft" activeCell="A1" activeCellId="0" sqref="A1"/>
-      <selection pane="topRight" activeCell="B1" activeCellId="0" sqref="B1"/>
-      <selection pane="bottomLeft" activeCell="A2" activeCellId="0" sqref="A2"/>
-      <selection pane="bottomRight" activeCell="F126" activeCellId="0" sqref="F126"/>
+      <selection pane="bottomLeft" activeCell="G1" activeCellId="0" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.6796875" defaultRowHeight="13.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="12.65"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="15.85"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="18.91"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="15.3"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="25.31"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="6" min="6" style="0" width="12.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="12.65"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="12.38"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="4" min="4" style="0" width="12.79"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="5" min="5" style="0" width="21"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="11" min="11" style="0" width="26.84"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
@@ -578,27 +208,27 @@
       <c r="E1" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="2" t="s">
         <v>5</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A2" s="0" t="n">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="B2" s="0" t="n">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="C2" s="0" t="n">
-        <v>124</v>
+        <v>152</v>
       </c>
       <c r="D2" s="0" t="n">
-        <v>16</v>
-      </c>
-      <c r="E2" s="0" t="s">
-        <v>6</v>
-      </c>
-      <c r="F2" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E2" s="0" t="n">
+        <v>36490</v>
+      </c>
+      <c r="F2" s="3" t="n">
         <v>181689</v>
       </c>
     </row>
@@ -615,31 +245,30 @@
       <c r="D3" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="F3" s="2" t="n">
+      <c r="E3" s="0" t="n">
+        <v>34821</v>
+      </c>
+      <c r="F3" s="4" t="n">
         <v>181689</v>
       </c>
-      <c r="G3" s="1"/>
     </row>
     <row r="4" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A4" s="0" t="n">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="B4" s="0" t="n">
-        <v>32</v>
+        <v>100</v>
       </c>
       <c r="C4" s="0" t="n">
-        <v>21</v>
+        <v>124</v>
       </c>
       <c r="D4" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E4" s="0" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="E4" s="0" t="n">
+        <v>38029</v>
+      </c>
+      <c r="F4" s="4" t="n">
         <v>181689</v>
       </c>
     </row>
@@ -656,30 +285,30 @@
       <c r="D5" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E5" s="0" t="s">
-        <v>9</v>
-      </c>
-      <c r="F5" s="2" t="n">
+      <c r="E5" s="0" t="n">
+        <v>35726</v>
+      </c>
+      <c r="F5" s="4" t="n">
         <v>181689</v>
       </c>
     </row>
     <row r="6" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A6" s="0" t="n">
-        <v>10</v>
+        <v>4</v>
       </c>
       <c r="B6" s="0" t="n">
-        <v>103</v>
+        <v>32</v>
       </c>
       <c r="C6" s="0" t="n">
-        <v>152</v>
+        <v>21</v>
       </c>
       <c r="D6" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E6" s="0" t="s">
-        <v>10</v>
-      </c>
-      <c r="F6" s="0" t="n">
+        <v>0</v>
+      </c>
+      <c r="E6" s="0" t="n">
+        <v>33615</v>
+      </c>
+      <c r="F6" s="4" t="n">
         <v>181689</v>
       </c>
     </row>
@@ -696,10 +325,10 @@
       <c r="D7" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E7" s="0" t="s">
-        <v>11</v>
-      </c>
-      <c r="F7" s="2" t="n">
+      <c r="E7" s="0" t="n">
+        <v>18395</v>
+      </c>
+      <c r="F7" s="4" t="n">
         <v>193800</v>
       </c>
     </row>
@@ -716,50 +345,50 @@
       <c r="D8" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E8" s="0" t="s">
-        <v>12</v>
-      </c>
-      <c r="F8" s="2" t="n">
+      <c r="E8" s="0" t="n">
+        <v>17858</v>
+      </c>
+      <c r="F8" s="4" t="n">
         <v>193800</v>
       </c>
     </row>
     <row r="9" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A9" s="0" t="n">
-        <v>31</v>
+        <v>24</v>
       </c>
       <c r="B9" s="0" t="n">
-        <v>276</v>
+        <v>149</v>
       </c>
       <c r="C9" s="0" t="n">
-        <v>194</v>
+        <v>122</v>
       </c>
       <c r="D9" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E9" s="0" t="s">
-        <v>13</v>
-      </c>
-      <c r="F9" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E9" s="0" t="n">
+        <v>21496</v>
+      </c>
+      <c r="F9" s="4" t="n">
         <v>194078</v>
       </c>
     </row>
     <row r="10" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A10" s="0" t="n">
-        <v>24</v>
+        <v>31</v>
       </c>
       <c r="B10" s="0" t="n">
-        <v>149</v>
+        <v>276</v>
       </c>
       <c r="C10" s="0" t="n">
-        <v>122</v>
+        <v>194</v>
       </c>
       <c r="D10" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E10" s="0" t="s">
-        <v>14</v>
-      </c>
-      <c r="F10" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E10" s="0" t="n">
+        <v>18230</v>
+      </c>
+      <c r="F10" s="4" t="n">
         <v>194078</v>
       </c>
     </row>
@@ -776,90 +405,90 @@
       <c r="D11" s="0" t="n">
         <v>32</v>
       </c>
-      <c r="E11" s="0" t="s">
-        <v>15</v>
-      </c>
-      <c r="F11" s="2" t="n">
+      <c r="E11" s="0" t="n">
+        <v>25906</v>
+      </c>
+      <c r="F11" s="4" t="n">
         <v>197199</v>
       </c>
     </row>
     <row r="12" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A12" s="0" t="n">
-        <v>1</v>
+        <v>34</v>
       </c>
       <c r="B12" s="0" t="n">
-        <v>27</v>
+        <v>162</v>
       </c>
       <c r="C12" s="0" t="n">
-        <v>32</v>
+        <v>110</v>
       </c>
       <c r="D12" s="0" t="n">
-        <v>0</v>
-      </c>
-      <c r="E12" s="0" t="s">
-        <v>16</v>
-      </c>
-      <c r="F12" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E12" s="0" t="n">
+        <v>15335</v>
+      </c>
+      <c r="F12" s="4" t="n">
         <v>202741</v>
       </c>
     </row>
     <row r="13" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A13" s="0" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="B13" s="0" t="n">
-        <v>162</v>
+        <v>27</v>
       </c>
       <c r="C13" s="0" t="n">
-        <v>110</v>
+        <v>32</v>
       </c>
       <c r="D13" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E13" s="0" t="s">
-        <v>17</v>
-      </c>
-      <c r="F13" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="E13" s="0" t="n">
+        <v>17523</v>
+      </c>
+      <c r="F13" s="4" t="n">
         <v>202741</v>
       </c>
     </row>
     <row r="14" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A14" s="0" t="n">
-        <v>22</v>
+        <v>54</v>
       </c>
       <c r="B14" s="0" t="n">
-        <v>171</v>
+        <v>549</v>
       </c>
       <c r="C14" s="0" t="n">
-        <v>146</v>
+        <v>464</v>
       </c>
       <c r="D14" s="0" t="n">
-        <v>4</v>
-      </c>
-      <c r="E14" s="0" t="s">
-        <v>18</v>
-      </c>
-      <c r="F14" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="E14" s="0" t="n">
+        <v>13823</v>
+      </c>
+      <c r="F14" s="4" t="n">
         <v>202902</v>
       </c>
     </row>
     <row r="15" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A15" s="0" t="n">
-        <v>54</v>
+        <v>22</v>
       </c>
       <c r="B15" s="0" t="n">
-        <v>549</v>
+        <v>171</v>
       </c>
       <c r="C15" s="0" t="n">
-        <v>464</v>
+        <v>146</v>
       </c>
       <c r="D15" s="0" t="n">
-        <v>25</v>
-      </c>
-      <c r="E15" s="0" t="s">
-        <v>19</v>
-      </c>
-      <c r="F15" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="E15" s="0" t="n">
+        <v>12184</v>
+      </c>
+      <c r="F15" s="4" t="n">
         <v>202902</v>
       </c>
     </row>
@@ -876,10 +505,10 @@
       <c r="D16" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E16" s="0" t="s">
-        <v>20</v>
-      </c>
-      <c r="F16" s="2" t="n">
+      <c r="E16" s="0" t="n">
+        <v>13098</v>
+      </c>
+      <c r="F16" s="4" t="n">
         <v>204298</v>
       </c>
     </row>
@@ -896,50 +525,50 @@
       <c r="D17" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E17" s="0" t="s">
-        <v>21</v>
-      </c>
-      <c r="F17" s="2" t="n">
+      <c r="E17" s="0" t="n">
+        <v>14801</v>
+      </c>
+      <c r="F17" s="4" t="n">
         <v>204298</v>
       </c>
     </row>
     <row r="18" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A18" s="0" t="n">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="B18" s="0" t="n">
-        <v>125</v>
+        <v>190</v>
       </c>
       <c r="C18" s="0" t="n">
-        <v>150</v>
+        <v>205</v>
       </c>
       <c r="D18" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E18" s="0" t="s">
-        <v>22</v>
-      </c>
-      <c r="F18" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E18" s="0" t="n">
+        <v>16809</v>
+      </c>
+      <c r="F18" s="4" t="n">
         <v>206191</v>
       </c>
     </row>
     <row r="19" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A19" s="0" t="n">
-        <v>24</v>
+        <v>19</v>
       </c>
       <c r="B19" s="0" t="n">
-        <v>190</v>
+        <v>125</v>
       </c>
       <c r="C19" s="0" t="n">
-        <v>205</v>
+        <v>150</v>
       </c>
       <c r="D19" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E19" s="0" t="s">
-        <v>23</v>
-      </c>
-      <c r="F19" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E19" s="0" t="n">
+        <v>16582</v>
+      </c>
+      <c r="F19" s="4" t="n">
         <v>206191</v>
       </c>
     </row>
@@ -956,13 +585,12 @@
       <c r="D20" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E20" s="0" t="s">
-        <v>24</v>
-      </c>
-      <c r="F20" s="2" t="n">
+      <c r="E20" s="0" t="n">
+        <v>11664</v>
+      </c>
+      <c r="F20" s="4" t="n">
         <v>207156</v>
       </c>
-      <c r="G20" s="1"/>
     </row>
     <row r="21" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A21" s="0" t="n">
@@ -977,10 +605,10 @@
       <c r="D21" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E21" s="0" t="s">
-        <v>25</v>
-      </c>
-      <c r="F21" s="2" t="n">
+      <c r="E21" s="0" t="n">
+        <v>13055</v>
+      </c>
+      <c r="F21" s="4" t="n">
         <v>207156</v>
       </c>
     </row>
@@ -997,50 +625,50 @@
       <c r="D22" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E22" s="0" t="s">
-        <v>26</v>
-      </c>
-      <c r="F22" s="2" t="n">
+      <c r="E22" s="0" t="n">
+        <v>17019</v>
+      </c>
+      <c r="F22" s="4" t="n">
         <v>209666</v>
       </c>
     </row>
     <row r="23" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A23" s="0" t="n">
-        <v>78</v>
+        <v>37</v>
       </c>
       <c r="B23" s="0" t="n">
-        <v>724</v>
+        <v>163</v>
       </c>
       <c r="C23" s="0" t="n">
-        <v>651</v>
+        <v>178</v>
       </c>
       <c r="D23" s="0" t="n">
-        <v>19</v>
-      </c>
-      <c r="E23" s="0" t="s">
-        <v>27</v>
-      </c>
-      <c r="F23" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E23" s="0" t="n">
+        <v>9183</v>
+      </c>
+      <c r="F23" s="4" t="n">
         <v>211239</v>
       </c>
     </row>
     <row r="24" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A24" s="0" t="n">
-        <v>37</v>
+        <v>78</v>
       </c>
       <c r="B24" s="0" t="n">
-        <v>163</v>
+        <v>724</v>
       </c>
       <c r="C24" s="0" t="n">
-        <v>178</v>
+        <v>651</v>
       </c>
       <c r="D24" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E24" s="0" t="s">
-        <v>28</v>
-      </c>
-      <c r="F24" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="E24" s="0" t="n">
+        <v>12758</v>
+      </c>
+      <c r="F24" s="4" t="n">
         <v>211239</v>
       </c>
     </row>
@@ -1057,10 +685,10 @@
       <c r="D25" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E25" s="0" t="s">
-        <v>29</v>
-      </c>
-      <c r="F25" s="2" t="n">
+      <c r="E25" s="0" t="n">
+        <v>17225</v>
+      </c>
+      <c r="F25" s="4" t="n">
         <v>211239</v>
       </c>
     </row>
@@ -1077,70 +705,70 @@
       <c r="D26" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E26" s="0" t="s">
-        <v>30</v>
-      </c>
-      <c r="F26" s="2" t="n">
+      <c r="E26" s="0" t="n">
+        <v>13410</v>
+      </c>
+      <c r="F26" s="4" t="n">
         <v>212337</v>
       </c>
     </row>
     <row r="27" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A27" s="0" t="n">
-        <v>50</v>
+        <v>24</v>
       </c>
       <c r="B27" s="0" t="n">
-        <v>124</v>
+        <v>207</v>
       </c>
       <c r="C27" s="0" t="n">
-        <v>143</v>
+        <v>201</v>
       </c>
       <c r="D27" s="0" t="n">
-        <v>45</v>
-      </c>
-      <c r="E27" s="0" t="s">
-        <v>31</v>
-      </c>
-      <c r="F27" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E27" s="0" t="n">
+        <v>13038</v>
+      </c>
+      <c r="F27" s="4" t="n">
         <v>214360</v>
       </c>
     </row>
     <row r="28" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A28" s="0" t="n">
-        <v>46</v>
+        <v>50</v>
       </c>
       <c r="B28" s="0" t="n">
-        <v>304</v>
+        <v>124</v>
       </c>
       <c r="C28" s="0" t="n">
-        <v>242</v>
+        <v>143</v>
       </c>
       <c r="D28" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E28" s="0" t="s">
-        <v>32</v>
-      </c>
-      <c r="F28" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="E28" s="0" t="n">
+        <v>10620</v>
+      </c>
+      <c r="F28" s="4" t="n">
         <v>214360</v>
       </c>
     </row>
     <row r="29" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A29" s="0" t="n">
-        <v>24</v>
+        <v>46</v>
       </c>
       <c r="B29" s="0" t="n">
-        <v>207</v>
+        <v>304</v>
       </c>
       <c r="C29" s="0" t="n">
-        <v>201</v>
+        <v>242</v>
       </c>
       <c r="D29" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E29" s="0" t="s">
-        <v>33</v>
-      </c>
-      <c r="F29" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E29" s="0" t="n">
+        <v>13327</v>
+      </c>
+      <c r="F29" s="4" t="n">
         <v>214360</v>
       </c>
     </row>
@@ -1157,50 +785,50 @@
       <c r="D30" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E30" s="0" t="s">
-        <v>34</v>
-      </c>
-      <c r="F30" s="2" t="n">
+      <c r="E30" s="0" t="n">
+        <v>19685</v>
+      </c>
+      <c r="F30" s="4" t="n">
         <v>214920</v>
       </c>
     </row>
     <row r="31" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A31" s="0" t="n">
-        <v>5</v>
+        <v>14</v>
       </c>
       <c r="B31" s="0" t="n">
-        <v>22</v>
+        <v>168</v>
       </c>
       <c r="C31" s="0" t="n">
-        <v>12</v>
+        <v>183</v>
       </c>
       <c r="D31" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E31" s="0" t="s">
-        <v>35</v>
-      </c>
-      <c r="F31" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E31" s="0" t="n">
+        <v>20014</v>
+      </c>
+      <c r="F31" s="4" t="n">
         <v>215466</v>
       </c>
     </row>
     <row r="32" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A32" s="0" t="n">
-        <v>14</v>
+        <v>5</v>
       </c>
       <c r="B32" s="0" t="n">
-        <v>168</v>
+        <v>22</v>
       </c>
       <c r="C32" s="0" t="n">
-        <v>183</v>
+        <v>12</v>
       </c>
       <c r="D32" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E32" s="0" t="s">
-        <v>36</v>
-      </c>
-      <c r="F32" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E32" s="0" t="n">
+        <v>25302</v>
+      </c>
+      <c r="F32" s="4" t="n">
         <v>215466</v>
       </c>
     </row>
@@ -1217,90 +845,90 @@
       <c r="D33" s="0" t="n">
         <v>26</v>
       </c>
-      <c r="E33" s="0" t="s">
-        <v>37</v>
-      </c>
-      <c r="F33" s="2" t="n">
+      <c r="E33" s="0" t="n">
+        <v>12732</v>
+      </c>
+      <c r="F33" s="4" t="n">
         <v>216064</v>
       </c>
     </row>
     <row r="34" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A34" s="0" t="n">
-        <v>4</v>
+        <v>53</v>
       </c>
       <c r="B34" s="0" t="n">
-        <v>88</v>
+        <v>234</v>
       </c>
       <c r="C34" s="0" t="n">
-        <v>77</v>
+        <v>280</v>
       </c>
       <c r="D34" s="0" t="n">
-        <v>1</v>
-      </c>
-      <c r="E34" s="0" t="s">
-        <v>38</v>
-      </c>
-      <c r="F34" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E34" s="0" t="n">
+        <v>15415</v>
+      </c>
+      <c r="F34" s="4" t="n">
         <v>216477</v>
       </c>
     </row>
     <row r="35" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A35" s="0" t="n">
-        <v>53</v>
+        <v>4</v>
       </c>
       <c r="B35" s="0" t="n">
-        <v>234</v>
+        <v>88</v>
       </c>
       <c r="C35" s="0" t="n">
-        <v>280</v>
+        <v>77</v>
       </c>
       <c r="D35" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="E35" s="0" t="s">
-        <v>39</v>
-      </c>
-      <c r="F35" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="E35" s="0" t="n">
+        <v>14591</v>
+      </c>
+      <c r="F35" s="4" t="n">
         <v>216477</v>
       </c>
     </row>
     <row r="36" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A36" s="0" t="n">
-        <v>23</v>
+        <v>31</v>
       </c>
       <c r="B36" s="0" t="n">
-        <v>151</v>
+        <v>294</v>
       </c>
       <c r="C36" s="0" t="n">
-        <v>206</v>
+        <v>241</v>
       </c>
       <c r="D36" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E36" s="0" t="s">
-        <v>40</v>
-      </c>
-      <c r="F36" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E36" s="0" t="n">
+        <v>13452</v>
+      </c>
+      <c r="F36" s="4" t="n">
         <v>216538</v>
       </c>
     </row>
     <row r="37" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A37" s="0" t="n">
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="B37" s="0" t="n">
-        <v>294</v>
+        <v>151</v>
       </c>
       <c r="C37" s="0" t="n">
-        <v>241</v>
+        <v>206</v>
       </c>
       <c r="D37" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E37" s="0" t="s">
-        <v>41</v>
-      </c>
-      <c r="F37" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E37" s="0" t="n">
+        <v>12660</v>
+      </c>
+      <c r="F37" s="4" t="n">
         <v>216538</v>
       </c>
     </row>
@@ -1317,10 +945,10 @@
       <c r="D38" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E38" s="0" t="s">
-        <v>42</v>
-      </c>
-      <c r="F38" s="2" t="n">
+      <c r="E38" s="0" t="n">
+        <v>9588</v>
+      </c>
+      <c r="F38" s="4" t="n">
         <v>217015</v>
       </c>
     </row>
@@ -1337,51 +965,50 @@
       <c r="D39" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E39" s="0" t="s">
-        <v>43</v>
-      </c>
-      <c r="F39" s="2" t="n">
+      <c r="E39" s="0" t="n">
+        <v>9900</v>
+      </c>
+      <c r="F39" s="4" t="n">
         <v>218361</v>
       </c>
-      <c r="G39" s="1"/>
     </row>
     <row r="40" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A40" s="0" t="n">
-        <v>32</v>
+        <v>39</v>
       </c>
       <c r="B40" s="0" t="n">
-        <v>177</v>
+        <v>272</v>
       </c>
       <c r="C40" s="0" t="n">
-        <v>192</v>
+        <v>289</v>
       </c>
       <c r="D40" s="0" t="n">
-        <v>15</v>
-      </c>
-      <c r="E40" s="0" t="s">
-        <v>44</v>
-      </c>
-      <c r="F40" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E40" s="0" t="n">
+        <v>17821</v>
+      </c>
+      <c r="F40" s="4" t="n">
         <v>218640</v>
       </c>
     </row>
     <row r="41" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A41" s="0" t="n">
-        <v>39</v>
+        <v>32</v>
       </c>
       <c r="B41" s="0" t="n">
-        <v>272</v>
+        <v>177</v>
       </c>
       <c r="C41" s="0" t="n">
-        <v>289</v>
+        <v>192</v>
       </c>
       <c r="D41" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E41" s="0" t="s">
-        <v>45</v>
-      </c>
-      <c r="F41" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="E41" s="0" t="n">
+        <v>15500</v>
+      </c>
+      <c r="F41" s="4" t="n">
         <v>218640</v>
       </c>
     </row>
@@ -1398,10 +1025,10 @@
       <c r="D42" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E42" s="0" t="s">
-        <v>46</v>
-      </c>
-      <c r="F42" s="2" t="n">
+      <c r="E42" s="0" t="n">
+        <v>19853</v>
+      </c>
+      <c r="F42" s="4" t="n">
         <v>218977</v>
       </c>
     </row>
@@ -1418,10 +1045,10 @@
       <c r="D43" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E43" s="0" t="s">
-        <v>47</v>
-      </c>
-      <c r="F43" s="2" t="n">
+      <c r="E43" s="0" t="n">
+        <v>15744</v>
+      </c>
+      <c r="F43" s="4" t="n">
         <v>219164</v>
       </c>
     </row>
@@ -1438,10 +1065,10 @@
       <c r="D44" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E44" s="0" t="s">
-        <v>48</v>
-      </c>
-      <c r="F44" s="2" t="n">
+      <c r="E44" s="0" t="n">
+        <v>15566</v>
+      </c>
+      <c r="F44" s="4" t="n">
         <v>219525</v>
       </c>
     </row>
@@ -1458,10 +1085,10 @@
       <c r="D45" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E45" s="0" t="s">
-        <v>49</v>
-      </c>
-      <c r="F45" s="2" t="n">
+      <c r="E45" s="0" t="n">
+        <v>8706</v>
+      </c>
+      <c r="F45" s="4" t="n">
         <v>219828</v>
       </c>
     </row>
@@ -1478,33 +1105,32 @@
       <c r="D46" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E46" s="0" t="s">
-        <v>50</v>
-      </c>
-      <c r="F46" s="2" t="n">
+      <c r="E46" s="0" t="n">
+        <v>18057</v>
+      </c>
+      <c r="F46" s="4" t="n">
         <v>220514</v>
       </c>
     </row>
     <row r="47" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A47" s="0" t="n">
-        <v>25</v>
+        <v>18</v>
       </c>
       <c r="B47" s="0" t="n">
-        <v>198</v>
+        <v>157</v>
       </c>
       <c r="C47" s="0" t="n">
-        <v>139</v>
+        <v>100</v>
       </c>
       <c r="D47" s="0" t="n">
-        <v>8</v>
-      </c>
-      <c r="E47" s="0" t="s">
-        <v>51</v>
-      </c>
-      <c r="F47" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="E47" s="0" t="n">
+        <v>21712</v>
+      </c>
+      <c r="F47" s="4" t="n">
         <v>223580</v>
       </c>
-      <c r="G47" s="1"/>
     </row>
     <row r="48" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A48" s="0" t="n">
@@ -1519,70 +1145,70 @@
       <c r="D48" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E48" s="0" t="s">
-        <v>52</v>
-      </c>
-      <c r="F48" s="2" t="n">
+      <c r="E48" s="0" t="n">
+        <v>15174</v>
+      </c>
+      <c r="F48" s="4" t="n">
         <v>223580</v>
       </c>
     </row>
     <row r="49" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A49" s="0" t="n">
-        <v>18</v>
+        <v>25</v>
       </c>
       <c r="B49" s="0" t="n">
-        <v>157</v>
+        <v>198</v>
       </c>
       <c r="C49" s="0" t="n">
-        <v>100</v>
+        <v>139</v>
       </c>
       <c r="D49" s="0" t="n">
-        <v>7</v>
-      </c>
-      <c r="E49" s="0" t="s">
-        <v>53</v>
-      </c>
-      <c r="F49" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="E49" s="0" t="n">
+        <v>16093</v>
+      </c>
+      <c r="F49" s="4" t="n">
         <v>223580</v>
       </c>
     </row>
     <row r="50" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A50" s="0" t="n">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="B50" s="0" t="n">
-        <v>148</v>
+        <v>121</v>
       </c>
       <c r="C50" s="0" t="n">
-        <v>205</v>
+        <v>109</v>
       </c>
       <c r="D50" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E50" s="0" t="s">
-        <v>54</v>
-      </c>
-      <c r="F50" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E50" s="0" t="n">
+        <v>14133</v>
+      </c>
+      <c r="F50" s="4" t="n">
         <v>223580</v>
       </c>
     </row>
     <row r="51" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A51" s="0" t="n">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B51" s="0" t="n">
-        <v>121</v>
+        <v>148</v>
       </c>
       <c r="C51" s="0" t="n">
-        <v>109</v>
+        <v>205</v>
       </c>
       <c r="D51" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E51" s="0" t="s">
-        <v>55</v>
-      </c>
-      <c r="F51" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E51" s="0" t="n">
+        <v>13516</v>
+      </c>
+      <c r="F51" s="4" t="n">
         <v>223580</v>
       </c>
     </row>
@@ -1599,10 +1225,10 @@
       <c r="D52" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E52" s="0" t="s">
-        <v>56</v>
-      </c>
-      <c r="F52" s="2" t="n">
+      <c r="E52" s="0" t="n">
+        <v>9564</v>
+      </c>
+      <c r="F52" s="4" t="n">
         <v>224848</v>
       </c>
     </row>
@@ -1619,10 +1245,10 @@
       <c r="D53" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E53" s="0" t="s">
-        <v>57</v>
-      </c>
-      <c r="F53" s="2" t="n">
+      <c r="E53" s="0" t="n">
+        <v>11620</v>
+      </c>
+      <c r="F53" s="4" t="n">
         <v>224987</v>
       </c>
     </row>
@@ -1639,10 +1265,10 @@
       <c r="D54" s="0" t="n">
         <v>3</v>
       </c>
-      <c r="E54" s="0" t="s">
-        <v>58</v>
-      </c>
-      <c r="F54" s="2" t="n">
+      <c r="E54" s="0" t="n">
+        <v>13168</v>
+      </c>
+      <c r="F54" s="4" t="n">
         <v>227306</v>
       </c>
     </row>
@@ -1659,50 +1285,50 @@
       <c r="D55" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E55" s="0" t="s">
-        <v>59</v>
-      </c>
-      <c r="F55" s="2" t="n">
+      <c r="E55" s="0" t="n">
+        <v>15168</v>
+      </c>
+      <c r="F55" s="4" t="n">
         <v>227820</v>
       </c>
     </row>
     <row r="56" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A56" s="0" t="n">
-        <v>24</v>
+        <v>9</v>
       </c>
       <c r="B56" s="0" t="n">
-        <v>217</v>
+        <v>108</v>
       </c>
       <c r="C56" s="0" t="n">
-        <v>209</v>
+        <v>42</v>
       </c>
       <c r="D56" s="0" t="n">
-        <v>3</v>
-      </c>
-      <c r="E56" s="0" t="s">
-        <v>60</v>
-      </c>
-      <c r="F56" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="E56" s="0" t="n">
+        <v>12158</v>
+      </c>
+      <c r="F56" s="4" t="n">
         <v>229171</v>
       </c>
     </row>
     <row r="57" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A57" s="0" t="n">
-        <v>9</v>
+        <v>24</v>
       </c>
       <c r="B57" s="0" t="n">
-        <v>108</v>
+        <v>217</v>
       </c>
       <c r="C57" s="0" t="n">
-        <v>42</v>
+        <v>209</v>
       </c>
       <c r="D57" s="0" t="n">
-        <v>2</v>
-      </c>
-      <c r="E57" s="0" t="s">
-        <v>61</v>
-      </c>
-      <c r="F57" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="E57" s="0" t="n">
+        <v>8752</v>
+      </c>
+      <c r="F57" s="4" t="n">
         <v>229171</v>
       </c>
     </row>
@@ -1719,10 +1345,10 @@
       <c r="D58" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E58" s="0" t="s">
-        <v>62</v>
-      </c>
-      <c r="F58" s="2" t="n">
+      <c r="E58" s="0" t="n">
+        <v>18369</v>
+      </c>
+      <c r="F58" s="4" t="n">
         <v>231017</v>
       </c>
     </row>
@@ -1739,10 +1365,10 @@
       <c r="D59" s="0" t="n">
         <v>20</v>
       </c>
-      <c r="E59" s="0" t="s">
-        <v>63</v>
-      </c>
-      <c r="F59" s="2" t="n">
+      <c r="E59" s="0" t="n">
+        <v>16135</v>
+      </c>
+      <c r="F59" s="4" t="n">
         <v>231885</v>
       </c>
     </row>
@@ -1759,10 +1385,10 @@
       <c r="D60" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E60" s="0" t="s">
-        <v>64</v>
-      </c>
-      <c r="F60" s="0" t="n">
+      <c r="E60" s="0" t="n">
+        <v>16846</v>
+      </c>
+      <c r="F60" s="3" t="n">
         <v>231885</v>
       </c>
     </row>
@@ -1779,10 +1405,10 @@
       <c r="D61" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E61" s="0" t="s">
-        <v>65</v>
-      </c>
-      <c r="F61" s="2" t="n">
+      <c r="E61" s="0" t="n">
+        <v>15240</v>
+      </c>
+      <c r="F61" s="4" t="n">
         <v>233288</v>
       </c>
     </row>
@@ -1799,10 +1425,10 @@
       <c r="D62" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E62" s="0" t="s">
-        <v>66</v>
-      </c>
-      <c r="F62" s="2" t="n">
+      <c r="E62" s="0" t="n">
+        <v>13397</v>
+      </c>
+      <c r="F62" s="4" t="n">
         <v>233288</v>
       </c>
     </row>
@@ -1819,10 +1445,10 @@
       <c r="D63" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E63" s="0" t="s">
-        <v>67</v>
-      </c>
-      <c r="F63" s="2" t="n">
+      <c r="E63" s="0" t="n">
+        <v>15164</v>
+      </c>
+      <c r="F63" s="4" t="n">
         <v>234024</v>
       </c>
     </row>
@@ -1839,10 +1465,10 @@
       <c r="D64" s="0" t="n">
         <v>36</v>
       </c>
-      <c r="E64" s="0" t="s">
-        <v>68</v>
-      </c>
-      <c r="F64" s="2" t="n">
+      <c r="E64" s="0" t="n">
+        <v>16123</v>
+      </c>
+      <c r="F64" s="4" t="n">
         <v>234024</v>
       </c>
     </row>
@@ -1859,10 +1485,10 @@
       <c r="D65" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E65" s="0" t="s">
-        <v>69</v>
-      </c>
-      <c r="F65" s="2" t="n">
+      <c r="E65" s="0" t="n">
+        <v>13683</v>
+      </c>
+      <c r="F65" s="4" t="n">
         <v>234224</v>
       </c>
     </row>
@@ -1879,10 +1505,10 @@
       <c r="D66" s="0" t="n">
         <v>13</v>
       </c>
-      <c r="E66" s="0" t="s">
-        <v>70</v>
-      </c>
-      <c r="F66" s="2" t="n">
+      <c r="E66" s="0" t="n">
+        <v>13536</v>
+      </c>
+      <c r="F66" s="4" t="n">
         <v>234224</v>
       </c>
     </row>
@@ -1899,10 +1525,10 @@
       <c r="D67" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E67" s="0" t="s">
-        <v>71</v>
-      </c>
-      <c r="F67" s="2" t="n">
+      <c r="E67" s="0" t="n">
+        <v>5523</v>
+      </c>
+      <c r="F67" s="4" t="n">
         <v>239526</v>
       </c>
     </row>
@@ -1919,10 +1545,10 @@
       <c r="D68" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E68" s="0" t="s">
-        <v>72</v>
-      </c>
-      <c r="F68" s="2" t="n">
+      <c r="E68" s="0" t="n">
+        <v>26064</v>
+      </c>
+      <c r="F68" s="4" t="n">
         <v>243255</v>
       </c>
     </row>
@@ -1939,50 +1565,50 @@
       <c r="D69" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E69" s="0" t="s">
-        <v>73</v>
-      </c>
-      <c r="F69" s="2" t="n">
+      <c r="E69" s="0" t="n">
+        <v>21685</v>
+      </c>
+      <c r="F69" s="4" t="n">
         <v>243255</v>
       </c>
     </row>
     <row r="70" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A70" s="0" t="n">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="B70" s="0" t="n">
-        <v>153</v>
+        <v>145</v>
       </c>
       <c r="C70" s="0" t="n">
-        <v>112</v>
+        <v>146</v>
       </c>
       <c r="D70" s="0" t="n">
-        <v>23</v>
-      </c>
-      <c r="E70" s="0" t="s">
-        <v>74</v>
-      </c>
-      <c r="F70" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E70" s="0" t="n">
+        <v>10547</v>
+      </c>
+      <c r="F70" s="4" t="n">
         <v>245449</v>
       </c>
     </row>
     <row r="71" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A71" s="0" t="n">
-        <v>27</v>
+        <v>31</v>
       </c>
       <c r="B71" s="0" t="n">
-        <v>145</v>
+        <v>153</v>
       </c>
       <c r="C71" s="0" t="n">
-        <v>146</v>
+        <v>112</v>
       </c>
       <c r="D71" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E71" s="0" t="s">
-        <v>75</v>
-      </c>
-      <c r="F71" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="E71" s="0" t="n">
+        <v>11387</v>
+      </c>
+      <c r="F71" s="4" t="n">
         <v>245449</v>
       </c>
     </row>
@@ -1999,10 +1625,10 @@
       <c r="D72" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E72" s="0" t="s">
-        <v>76</v>
-      </c>
-      <c r="F72" s="2" t="n">
+      <c r="E72" s="0" t="n">
+        <v>12982</v>
+      </c>
+      <c r="F72" s="4" t="n">
         <v>247810</v>
       </c>
     </row>
@@ -2019,10 +1645,10 @@
       <c r="D73" s="0" t="n">
         <v>18</v>
       </c>
-      <c r="E73" s="0" t="s">
-        <v>77</v>
-      </c>
-      <c r="F73" s="2" t="n">
+      <c r="E73" s="0" t="n">
+        <v>7961</v>
+      </c>
+      <c r="F73" s="4" t="n">
         <v>249471</v>
       </c>
     </row>
@@ -2039,50 +1665,50 @@
       <c r="D74" s="0" t="n">
         <v>8</v>
       </c>
-      <c r="E74" s="0" t="s">
-        <v>78</v>
-      </c>
-      <c r="F74" s="2" t="n">
+      <c r="E74" s="0" t="n">
+        <v>15036</v>
+      </c>
+      <c r="F74" s="4" t="n">
         <v>249791</v>
       </c>
     </row>
     <row r="75" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A75" s="0" t="n">
-        <v>19</v>
+        <v>28</v>
       </c>
       <c r="B75" s="0" t="n">
-        <v>257</v>
+        <v>103</v>
       </c>
       <c r="C75" s="0" t="n">
-        <v>221</v>
+        <v>184</v>
       </c>
       <c r="D75" s="0" t="n">
-        <v>6</v>
-      </c>
-      <c r="E75" s="0" t="s">
-        <v>79</v>
-      </c>
-      <c r="F75" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="E75" s="0" t="n">
+        <v>8746</v>
+      </c>
+      <c r="F75" s="4" t="n">
         <v>252155</v>
       </c>
     </row>
     <row r="76" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A76" s="0" t="n">
-        <v>28</v>
+        <v>19</v>
       </c>
       <c r="B76" s="0" t="n">
-        <v>103</v>
+        <v>257</v>
       </c>
       <c r="C76" s="0" t="n">
-        <v>184</v>
+        <v>221</v>
       </c>
       <c r="D76" s="0" t="n">
-        <v>13</v>
-      </c>
-      <c r="E76" s="0" t="s">
-        <v>80</v>
-      </c>
-      <c r="F76" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="E76" s="0" t="n">
+        <v>10914</v>
+      </c>
+      <c r="F76" s="4" t="n">
         <v>252155</v>
       </c>
     </row>
@@ -2099,10 +1725,10 @@
       <c r="D77" s="0" t="n">
         <v>17</v>
       </c>
-      <c r="E77" s="0" t="s">
-        <v>81</v>
-      </c>
-      <c r="F77" s="2" t="n">
+      <c r="E77" s="0" t="n">
+        <v>7293</v>
+      </c>
+      <c r="F77" s="4" t="n">
         <v>253132</v>
       </c>
     </row>
@@ -2119,10 +1745,10 @@
       <c r="D78" s="0" t="n">
         <v>27</v>
       </c>
-      <c r="E78" s="0" t="s">
-        <v>82</v>
-      </c>
-      <c r="F78" s="2" t="n">
+      <c r="E78" s="0" t="n">
+        <v>11927</v>
+      </c>
+      <c r="F78" s="4" t="n">
         <v>253890</v>
       </c>
     </row>
@@ -2139,10 +1765,10 @@
       <c r="D79" s="0" t="n">
         <v>12</v>
       </c>
-      <c r="E79" s="0" t="s">
-        <v>83</v>
-      </c>
-      <c r="F79" s="2" t="n">
+      <c r="E79" s="0" t="n">
+        <v>13410</v>
+      </c>
+      <c r="F79" s="4" t="n">
         <v>253890</v>
       </c>
     </row>
@@ -2159,10 +1785,10 @@
       <c r="D80" s="0" t="n">
         <v>0</v>
       </c>
-      <c r="E80" s="0" t="s">
-        <v>84</v>
-      </c>
-      <c r="F80" s="2" t="n">
+      <c r="E80" s="0" t="n">
+        <v>20847</v>
+      </c>
+      <c r="F80" s="4" t="n">
         <v>254727</v>
       </c>
     </row>
@@ -2179,10 +1805,10 @@
       <c r="D81" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="E81" s="0" t="s">
-        <v>85</v>
-      </c>
-      <c r="F81" s="2" t="n">
+      <c r="E81" s="0" t="n">
+        <v>9718</v>
+      </c>
+      <c r="F81" s="4" t="n">
         <v>255539</v>
       </c>
     </row>
@@ -2199,10 +1825,10 @@
       <c r="D82" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E82" s="0" t="s">
-        <v>86</v>
-      </c>
-      <c r="F82" s="2" t="n">
+      <c r="E82" s="0" t="n">
+        <v>9613</v>
+      </c>
+      <c r="F82" s="4" t="n">
         <v>255539</v>
       </c>
     </row>
@@ -2219,10 +1845,10 @@
       <c r="D83" s="0" t="n">
         <v>11</v>
       </c>
-      <c r="E83" s="0" t="s">
-        <v>87</v>
-      </c>
-      <c r="F83" s="2" t="n">
+      <c r="E83" s="0" t="n">
+        <v>11667</v>
+      </c>
+      <c r="F83" s="4" t="n">
         <v>259027</v>
       </c>
     </row>
@@ -2239,10 +1865,10 @@
       <c r="D84" s="0" t="n">
         <v>2</v>
       </c>
-      <c r="E84" s="0" t="s">
-        <v>88</v>
-      </c>
-      <c r="F84" s="2" t="n">
+      <c r="E84" s="0" t="n">
+        <v>9474</v>
+      </c>
+      <c r="F84" s="4" t="n">
         <v>260776</v>
       </c>
     </row>
@@ -2259,50 +1885,50 @@
       <c r="D85" s="0" t="n">
         <v>14</v>
       </c>
-      <c r="E85" s="0" t="s">
-        <v>89</v>
-      </c>
-      <c r="F85" s="2" t="n">
+      <c r="E85" s="0" t="n">
+        <v>6677</v>
+      </c>
+      <c r="F85" s="4" t="n">
         <v>260776</v>
       </c>
     </row>
     <row r="86" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A86" s="0" t="n">
-        <v>46</v>
+        <v>32</v>
       </c>
       <c r="B86" s="0" t="n">
-        <v>199</v>
+        <v>246</v>
       </c>
       <c r="C86" s="0" t="n">
-        <v>143</v>
+        <v>297</v>
       </c>
       <c r="D86" s="0" t="n">
-        <v>14</v>
-      </c>
-      <c r="E86" s="0" t="s">
-        <v>90</v>
-      </c>
-      <c r="F86" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="E86" s="0" t="n">
+        <v>9928</v>
+      </c>
+      <c r="F86" s="4" t="n">
         <v>263062</v>
       </c>
     </row>
     <row r="87" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A87" s="0" t="n">
-        <v>32</v>
+        <v>46</v>
       </c>
       <c r="B87" s="0" t="n">
-        <v>246</v>
+        <v>199</v>
       </c>
       <c r="C87" s="0" t="n">
-        <v>297</v>
+        <v>143</v>
       </c>
       <c r="D87" s="0" t="n">
-        <v>11</v>
-      </c>
-      <c r="E87" s="0" t="s">
-        <v>91</v>
-      </c>
-      <c r="F87" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="E87" s="0" t="n">
+        <v>15631</v>
+      </c>
+      <c r="F87" s="4" t="n">
         <v>263062</v>
       </c>
     </row>
@@ -2319,10 +1945,10 @@
       <c r="D88" s="0" t="n">
         <v>34</v>
       </c>
-      <c r="E88" s="0" t="s">
-        <v>92</v>
-      </c>
-      <c r="F88" s="2" t="n">
+      <c r="E88" s="0" t="n">
+        <v>10358</v>
+      </c>
+      <c r="F88" s="4" t="n">
         <v>263158</v>
       </c>
     </row>
@@ -2339,50 +1965,50 @@
       <c r="D89" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E89" s="0" t="s">
-        <v>93</v>
-      </c>
-      <c r="F89" s="2" t="n">
+      <c r="E89" s="0" t="n">
+        <v>13672</v>
+      </c>
+      <c r="F89" s="4" t="n">
         <v>263158</v>
       </c>
     </row>
     <row r="90" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A90" s="0" t="n">
-        <v>22</v>
+        <v>12</v>
       </c>
       <c r="B90" s="0" t="n">
-        <v>187</v>
+        <v>99</v>
       </c>
       <c r="C90" s="0" t="n">
-        <v>124</v>
+        <v>80</v>
       </c>
       <c r="D90" s="0" t="n">
-        <v>115</v>
-      </c>
-      <c r="E90" s="0" t="s">
-        <v>94</v>
-      </c>
-      <c r="F90" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="E90" s="0" t="n">
+        <v>9471</v>
+      </c>
+      <c r="F90" s="4" t="n">
         <v>263797</v>
       </c>
     </row>
     <row r="91" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A91" s="0" t="n">
-        <v>12</v>
+        <v>22</v>
       </c>
       <c r="B91" s="0" t="n">
-        <v>99</v>
+        <v>187</v>
       </c>
       <c r="C91" s="0" t="n">
-        <v>80</v>
+        <v>124</v>
       </c>
       <c r="D91" s="0" t="n">
-        <v>5</v>
-      </c>
-      <c r="E91" s="0" t="s">
-        <v>95</v>
-      </c>
-      <c r="F91" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="E91" s="0" t="n">
+        <v>9467</v>
+      </c>
+      <c r="F91" s="4" t="n">
         <v>263797</v>
       </c>
     </row>
@@ -2399,10 +2025,10 @@
       <c r="D92" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E92" s="0" t="s">
-        <v>96</v>
-      </c>
-      <c r="F92" s="2" t="n">
+      <c r="E92" s="0" t="n">
+        <v>11545</v>
+      </c>
+      <c r="F92" s="4" t="n">
         <v>264781</v>
       </c>
     </row>
@@ -2419,10 +2045,10 @@
       <c r="D93" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E93" s="0" t="s">
-        <v>97</v>
-      </c>
-      <c r="F93" s="2" t="n">
+      <c r="E93" s="0" t="n">
+        <v>12939</v>
+      </c>
+      <c r="F93" s="4" t="n">
         <v>265421</v>
       </c>
     </row>
@@ -2439,10 +2065,10 @@
       <c r="D94" s="0" t="n">
         <v>5</v>
       </c>
-      <c r="E94" s="0" t="s">
-        <v>98</v>
-      </c>
-      <c r="F94" s="2" t="n">
+      <c r="E94" s="0" t="n">
+        <v>8060</v>
+      </c>
+      <c r="F94" s="4" t="n">
         <v>266897</v>
       </c>
     </row>
@@ -2459,10 +2085,10 @@
       <c r="D95" s="0" t="n">
         <v>77</v>
       </c>
-      <c r="E95" s="0" t="s">
-        <v>99</v>
-      </c>
-      <c r="F95" s="2" t="n">
+      <c r="E95" s="0" t="n">
+        <v>4002</v>
+      </c>
+      <c r="F95" s="4" t="n">
         <v>266897</v>
       </c>
     </row>
@@ -2479,10 +2105,10 @@
       <c r="D96" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E96" s="0" t="s">
-        <v>100</v>
-      </c>
-      <c r="F96" s="2" t="n">
+      <c r="E96" s="0" t="n">
+        <v>12807</v>
+      </c>
+      <c r="F96" s="4" t="n">
         <v>267985</v>
       </c>
     </row>
@@ -2499,10 +2125,10 @@
       <c r="D97" s="0" t="n">
         <v>9</v>
       </c>
-      <c r="E97" s="0" t="s">
-        <v>101</v>
-      </c>
-      <c r="F97" s="2" t="n">
+      <c r="E97" s="0" t="n">
+        <v>5285</v>
+      </c>
+      <c r="F97" s="4" t="n">
         <v>282625</v>
       </c>
     </row>
@@ -2519,10 +2145,10 @@
       <c r="D98" s="0" t="n">
         <v>4</v>
       </c>
-      <c r="E98" s="0" t="s">
-        <v>102</v>
-      </c>
-      <c r="F98" s="2" t="n">
+      <c r="E98" s="0" t="n">
+        <v>6725</v>
+      </c>
+      <c r="F98" s="4" t="n">
         <v>282951</v>
       </c>
     </row>
@@ -2539,10 +2165,10 @@
       <c r="D99" s="0" t="n">
         <v>68</v>
       </c>
-      <c r="E99" s="0" t="s">
-        <v>103</v>
-      </c>
-      <c r="F99" s="2" t="n">
+      <c r="E99" s="0" t="n">
+        <v>9359</v>
+      </c>
+      <c r="F99" s="4" t="n">
         <v>284989</v>
       </c>
     </row>
@@ -2559,10 +2185,10 @@
       <c r="D100" s="0" t="n">
         <v>93</v>
       </c>
-      <c r="E100" s="0" t="s">
-        <v>104</v>
-      </c>
-      <c r="F100" s="2" t="n">
+      <c r="E100" s="0" t="n">
+        <v>7091</v>
+      </c>
+      <c r="F100" s="4" t="n">
         <v>287077</v>
       </c>
     </row>
@@ -2579,10 +2205,10 @@
       <c r="D101" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E101" s="0" t="s">
-        <v>105</v>
-      </c>
-      <c r="F101" s="2" t="n">
+      <c r="E101" s="0" t="n">
+        <v>10161</v>
+      </c>
+      <c r="F101" s="4" t="n">
         <v>289059</v>
       </c>
     </row>
@@ -2599,10 +2225,10 @@
       <c r="D102" s="0" t="n">
         <v>7</v>
       </c>
-      <c r="E102" s="0" t="s">
-        <v>106</v>
-      </c>
-      <c r="F102" s="2" t="n">
+      <c r="E102" s="0" t="n">
+        <v>6306</v>
+      </c>
+      <c r="F102" s="4" t="n">
         <v>292089</v>
       </c>
     </row>
@@ -2619,10 +2245,10 @@
       <c r="D103" s="0" t="n">
         <v>24</v>
       </c>
-      <c r="E103" s="0" t="s">
-        <v>107</v>
-      </c>
-      <c r="F103" s="2" t="n">
+      <c r="E103" s="0" t="n">
+        <v>4437</v>
+      </c>
+      <c r="F103" s="4" t="n">
         <v>292089</v>
       </c>
     </row>
@@ -2639,10 +2265,10 @@
       <c r="D104" s="0" t="n">
         <v>16</v>
       </c>
-      <c r="E104" s="0" t="s">
-        <v>108</v>
-      </c>
-      <c r="F104" s="2" t="n">
+      <c r="E104" s="0" t="n">
+        <v>9073</v>
+      </c>
+      <c r="F104" s="4" t="n">
         <v>292183</v>
       </c>
     </row>
@@ -2659,10 +2285,10 @@
       <c r="D105" s="0" t="n">
         <v>25</v>
       </c>
-      <c r="E105" s="0" t="s">
-        <v>109</v>
-      </c>
-      <c r="F105" s="2" t="n">
+      <c r="E105" s="0" t="n">
+        <v>7111</v>
+      </c>
+      <c r="F105" s="4" t="n">
         <v>292183</v>
       </c>
     </row>
@@ -2679,10 +2305,10 @@
       <c r="D106" s="0" t="n">
         <v>166</v>
       </c>
-      <c r="E106" s="0" t="s">
-        <v>110</v>
-      </c>
-      <c r="F106" s="2" t="n">
+      <c r="E106" s="0" t="n">
+        <v>3410</v>
+      </c>
+      <c r="F106" s="4" t="n">
         <v>292855</v>
       </c>
     </row>
@@ -2699,10 +2325,10 @@
       <c r="D107" s="0" t="n">
         <v>6</v>
       </c>
-      <c r="E107" s="0" t="s">
-        <v>111</v>
-      </c>
-      <c r="F107" s="2" t="n">
+      <c r="E107" s="0" t="n">
+        <v>7352</v>
+      </c>
+      <c r="F107" s="4" t="n">
         <v>293802</v>
       </c>
     </row>
@@ -2719,10 +2345,10 @@
       <c r="D108" s="0" t="n">
         <v>31</v>
       </c>
-      <c r="E108" s="0" t="s">
-        <v>112</v>
-      </c>
-      <c r="F108" s="2" t="n">
+      <c r="E108" s="0" t="n">
+        <v>7281</v>
+      </c>
+      <c r="F108" s="4" t="n">
         <v>296003</v>
       </c>
     </row>
@@ -2739,10 +2365,10 @@
       <c r="D109" s="0" t="n">
         <v>29</v>
       </c>
-      <c r="E109" s="0" t="s">
-        <v>113</v>
-      </c>
-      <c r="F109" s="2" t="n">
+      <c r="E109" s="0" t="n">
+        <v>9095</v>
+      </c>
+      <c r="F109" s="4" t="n">
         <v>301061</v>
       </c>
     </row>
@@ -2759,10 +2385,10 @@
       <c r="D110" s="0" t="n">
         <v>48</v>
       </c>
-      <c r="E110" s="0" t="s">
-        <v>114</v>
-      </c>
-      <c r="F110" s="2" t="n">
+      <c r="E110" s="0" t="n">
+        <v>11238</v>
+      </c>
+      <c r="F110" s="4" t="n">
         <v>307787</v>
       </c>
     </row>
@@ -2779,10 +2405,10 @@
       <c r="D111" s="0" t="n">
         <v>23</v>
       </c>
-      <c r="E111" s="0" t="s">
-        <v>115</v>
-      </c>
-      <c r="F111" s="2" t="n">
+      <c r="E111" s="0" t="n">
+        <v>6378</v>
+      </c>
+      <c r="F111" s="4" t="n">
         <v>318978</v>
       </c>
     </row>
@@ -2799,50 +2425,50 @@
       <c r="D112" s="0" t="n">
         <v>21</v>
       </c>
-      <c r="E112" s="0" t="s">
-        <v>116</v>
-      </c>
-      <c r="F112" s="2" t="n">
+      <c r="E112" s="0" t="n">
+        <v>4876</v>
+      </c>
+      <c r="F112" s="4" t="n">
         <v>328564</v>
       </c>
     </row>
     <row r="113" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A113" s="0" t="n">
-        <v>31</v>
+        <v>46</v>
       </c>
       <c r="B113" s="0" t="n">
-        <v>294</v>
+        <v>262</v>
       </c>
       <c r="C113" s="0" t="n">
-        <v>387</v>
+        <v>235</v>
       </c>
       <c r="D113" s="0" t="n">
-        <v>20</v>
-      </c>
-      <c r="E113" s="0" t="s">
-        <v>117</v>
-      </c>
-      <c r="F113" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="E113" s="0" t="n">
+        <v>9439</v>
+      </c>
+      <c r="F113" s="4" t="n">
         <v>338448</v>
       </c>
     </row>
     <row r="114" customFormat="false" ht="13.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
       <c r="A114" s="0" t="n">
-        <v>46</v>
+        <v>31</v>
       </c>
       <c r="B114" s="0" t="n">
-        <v>262</v>
+        <v>294</v>
       </c>
       <c r="C114" s="0" t="n">
-        <v>235</v>
+        <v>387</v>
       </c>
       <c r="D114" s="0" t="n">
-        <v>60</v>
-      </c>
-      <c r="E114" s="0" t="s">
-        <v>118</v>
-      </c>
-      <c r="F114" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="E114" s="0" t="n">
+        <v>9646</v>
+      </c>
+      <c r="F114" s="4" t="n">
         <v>338448</v>
       </c>
     </row>
@@ -2859,10 +2485,10 @@
       <c r="D115" s="0" t="n">
         <v>15</v>
       </c>
-      <c r="E115" s="0" t="s">
-        <v>119</v>
-      </c>
-      <c r="F115" s="2" t="n">
+      <c r="E115" s="0" t="n">
+        <v>7327</v>
+      </c>
+      <c r="F115" s="4" t="n">
         <v>338448</v>
       </c>
     </row>
@@ -2879,10 +2505,10 @@
       <c r="D116" s="0" t="n">
         <v>75</v>
       </c>
-      <c r="E116" s="0" t="s">
-        <v>120</v>
-      </c>
-      <c r="F116" s="2" t="n">
+      <c r="E116" s="0" t="n">
+        <v>5605</v>
+      </c>
+      <c r="F116" s="4" t="n">
         <v>348577</v>
       </c>
     </row>
@@ -2899,10 +2525,10 @@
       <c r="D117" s="0" t="n">
         <v>30</v>
       </c>
-      <c r="E117" s="0" t="s">
-        <v>121</v>
-      </c>
-      <c r="F117" s="2" t="n">
+      <c r="E117" s="0" t="n">
+        <v>4599</v>
+      </c>
+      <c r="F117" s="4" t="n">
         <v>352983</v>
       </c>
     </row>
@@ -2919,10 +2545,10 @@
       <c r="D118" s="0" t="n">
         <v>127</v>
       </c>
-      <c r="E118" s="0" t="s">
-        <v>122</v>
-      </c>
-      <c r="F118" s="2" t="n">
+      <c r="E118" s="0" t="n">
+        <v>2410</v>
+      </c>
+      <c r="F118" s="4" t="n">
         <v>359064</v>
       </c>
     </row>
@@ -2939,10 +2565,10 @@
       <c r="D119" s="0" t="n">
         <v>88</v>
       </c>
-      <c r="E119" s="0" t="s">
-        <v>123</v>
-      </c>
-      <c r="F119" s="2" t="n">
+      <c r="E119" s="0" t="n">
+        <v>3068</v>
+      </c>
+      <c r="F119" s="4" t="n">
         <v>359499</v>
       </c>
     </row>
@@ -2959,10 +2585,10 @@
       <c r="D120" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E120" s="0" t="s">
-        <v>124</v>
-      </c>
-      <c r="F120" s="2" t="n">
+      <c r="E120" s="0" t="n">
+        <v>2835</v>
+      </c>
+      <c r="F120" s="4" t="n">
         <v>364815</v>
       </c>
     </row>
@@ -2979,10 +2605,10 @@
       <c r="D121" s="0" t="n">
         <v>66</v>
       </c>
-      <c r="E121" s="0" t="s">
-        <v>125</v>
-      </c>
-      <c r="F121" s="2" t="n">
+      <c r="E121" s="0" t="n">
+        <v>3041</v>
+      </c>
+      <c r="F121" s="4" t="n">
         <v>367692</v>
       </c>
     </row>
@@ -2999,10 +2625,10 @@
       <c r="D122" s="0" t="n">
         <v>284</v>
       </c>
-      <c r="E122" s="0" t="s">
-        <v>126</v>
-      </c>
-      <c r="F122" s="2" t="n">
+      <c r="E122" s="0" t="n">
+        <v>2755</v>
+      </c>
+      <c r="F122" s="4" t="n">
         <v>371916</v>
       </c>
     </row>
@@ -3019,10 +2645,10 @@
       <c r="D123" s="0" t="n">
         <v>183</v>
       </c>
-      <c r="E123" s="0" t="s">
-        <v>127</v>
-      </c>
-      <c r="F123" s="2" t="n">
+      <c r="E123" s="0" t="n">
+        <v>2253</v>
+      </c>
+      <c r="F123" s="4" t="n">
         <v>430640</v>
       </c>
     </row>
@@ -3039,10 +2665,10 @@
       <c r="D124" s="0" t="n">
         <v>123</v>
       </c>
-      <c r="E124" s="0" t="s">
-        <v>128</v>
-      </c>
-      <c r="F124" s="2" t="n">
+      <c r="E124" s="0" t="n">
+        <v>2549</v>
+      </c>
+      <c r="F124" s="4" t="n">
         <v>458111</v>
       </c>
     </row>
@@ -3059,10 +2685,10 @@
       <c r="D125" s="0" t="n">
         <v>448</v>
       </c>
-      <c r="E125" s="0" t="s">
-        <v>129</v>
-      </c>
-      <c r="F125" s="2" t="n">
+      <c r="E125" s="0" t="n">
+        <v>2153</v>
+      </c>
+      <c r="F125" s="4" t="n">
         <v>459046</v>
       </c>
     </row>
@@ -3079,10 +2705,10 @@
       <c r="D126" s="0" t="n">
         <v>92</v>
       </c>
-      <c r="E126" s="0" t="s">
-        <v>130</v>
-      </c>
-      <c r="F126" s="2" t="n">
+      <c r="E126" s="0" t="n">
+        <v>1433</v>
+      </c>
+      <c r="F126" s="4" t="n">
         <v>466137</v>
       </c>
     </row>
